--- a/Rozliczenie Maj działanośc.xlsx
+++ b/Rozliczenie Maj działanośc.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="48">
   <si>
     <t>Nr sprawy</t>
   </si>
@@ -141,9 +141,6 @@
     <t>NIE UJĘTE W ROZLICZENIU</t>
   </si>
   <si>
-    <t>rozliczono w kwietniu</t>
-  </si>
-  <si>
     <t>Poniatowice - 61km</t>
   </si>
   <si>
@@ -158,6 +155,24 @@
   <si>
     <t>Reymonta 8</t>
   </si>
+  <si>
+    <t>???????????</t>
+  </si>
+  <si>
+    <t>- Z KWIETNIA BRAKUJE</t>
+  </si>
+  <si>
+    <t>Skokowa, Brzozowa 6</t>
+  </si>
+  <si>
+    <t>Gradowa, Wrocław</t>
+  </si>
+  <si>
+    <t>Saperów, Wrocław</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Piskorzówek 23</t>
+  </si>
 </sst>
 </file>
 
@@ -166,7 +181,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,8 +233,32 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,6 +275,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC99FF"/>
+        <bgColor rgb="FF9999FF"/>
       </patternFill>
     </fill>
   </fills>
@@ -272,15 +317,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -321,8 +367,18 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
+    <cellStyle name="20% - Accent4" xfId="6"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 10" xfId="5"/>
     <cellStyle name="Normalny 102" xfId="4"/>
@@ -606,11 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A2:S98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K101" sqref="K101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -623,6 +678,7 @@
     <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
@@ -654,7 +710,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1">
+    <row r="3" spans="1:10">
       <c r="A3" s="4">
         <v>2652729</v>
       </c>
@@ -685,7 +741,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1">
+    <row r="4" spans="1:10">
       <c r="A4" s="4">
         <v>4231002</v>
       </c>
@@ -712,7 +768,7 @@
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:10" hidden="1">
+    <row r="5" spans="1:10">
       <c r="A5" s="4">
         <v>4261807</v>
       </c>
@@ -739,7 +795,7 @@
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:10" hidden="1">
+    <row r="6" spans="1:10">
       <c r="A6" s="4">
         <v>4231071</v>
       </c>
@@ -766,7 +822,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:10" hidden="1">
+    <row r="7" spans="1:10">
       <c r="A7" s="4">
         <v>4231020</v>
       </c>
@@ -793,7 +849,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:10" hidden="1">
+    <row r="8" spans="1:10">
       <c r="A8" s="4">
         <v>4219047</v>
       </c>
@@ -820,7 +876,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:10" hidden="1">
+    <row r="9" spans="1:10">
       <c r="A9" s="4">
         <v>4220151</v>
       </c>
@@ -847,7 +903,7 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:10" hidden="1">
+    <row r="10" spans="1:10">
       <c r="A10" s="4">
         <v>4231064</v>
       </c>
@@ -928,7 +984,7 @@
       </c>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:10" hidden="1">
+    <row r="13" spans="1:10">
       <c r="A13" s="4">
         <v>4307050</v>
       </c>
@@ -955,7 +1011,7 @@
       </c>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:10" hidden="1">
+    <row r="14" spans="1:10">
       <c r="A14" s="4">
         <v>4245225</v>
       </c>
@@ -986,7 +1042,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1">
+    <row r="15" spans="1:10">
       <c r="A15" s="4">
         <v>4302989</v>
       </c>
@@ -1013,7 +1069,7 @@
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:10" hidden="1">
+    <row r="16" spans="1:10">
       <c r="A16" s="4">
         <v>4302919</v>
       </c>
@@ -1040,7 +1096,7 @@
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:11" hidden="1">
+    <row r="17" spans="1:11">
       <c r="A17" s="4">
         <v>4303025</v>
       </c>
@@ -1067,7 +1123,7 @@
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:11" hidden="1">
+    <row r="18" spans="1:11">
       <c r="A18" s="4">
         <v>4307863</v>
       </c>
@@ -1098,7 +1154,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1">
+    <row r="19" spans="1:11">
       <c r="A19" s="4">
         <v>4302928</v>
       </c>
@@ -1125,7 +1181,7 @@
       </c>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:11" hidden="1">
+    <row r="20" spans="1:11">
       <c r="A20" s="4">
         <v>4302417</v>
       </c>
@@ -1152,7 +1208,7 @@
       </c>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:11" hidden="1">
+    <row r="21" spans="1:11">
       <c r="A21" s="4">
         <v>4310718</v>
       </c>
@@ -1179,7 +1235,7 @@
       </c>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:11" hidden="1">
+    <row r="22" spans="1:11">
       <c r="A22" s="4">
         <v>4325300</v>
       </c>
@@ -1206,7 +1262,7 @@
       </c>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:11" hidden="1">
+    <row r="23" spans="1:11">
       <c r="A23" s="4">
         <v>4275280</v>
       </c>
@@ -1233,7 +1289,7 @@
       </c>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:11" hidden="1">
+    <row r="24" spans="1:11">
       <c r="A24" s="4">
         <v>4326496</v>
       </c>
@@ -1263,10 +1319,10 @@
         <v>45</v>
       </c>
       <c r="K24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" hidden="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="4">
         <v>4302879</v>
       </c>
@@ -1293,7 +1349,7 @@
       </c>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:11" hidden="1">
+    <row r="26" spans="1:11">
       <c r="A26" s="4">
         <v>4328308</v>
       </c>
@@ -1320,7 +1376,7 @@
       </c>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:11" hidden="1">
+    <row r="27" spans="1:11">
       <c r="A27" s="4">
         <v>4328344</v>
       </c>
@@ -1347,7 +1403,7 @@
       </c>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:11" hidden="1">
+    <row r="28" spans="1:11">
       <c r="A28" s="4">
         <v>4303026</v>
       </c>
@@ -1374,7 +1430,7 @@
       </c>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:11" hidden="1">
+    <row r="29" spans="1:11">
       <c r="A29" s="4">
         <v>4321839</v>
       </c>
@@ -1401,7 +1457,7 @@
       </c>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:11" hidden="1">
+    <row r="30" spans="1:11">
       <c r="A30" s="4">
         <v>4326602</v>
       </c>
@@ -1432,7 +1488,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1">
+    <row r="31" spans="1:11">
       <c r="A31" s="4">
         <v>4307877</v>
       </c>
@@ -1463,7 +1519,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1">
+    <row r="32" spans="1:11">
       <c r="A32" s="4">
         <v>4314731</v>
       </c>
@@ -1490,7 +1546,7 @@
       </c>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="1:11" hidden="1">
+    <row r="33" spans="1:11">
       <c r="A33" s="4">
         <v>4306320</v>
       </c>
@@ -1517,7 +1573,7 @@
       </c>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:11" hidden="1">
+    <row r="34" spans="1:11">
       <c r="A34" s="4">
         <v>4307775</v>
       </c>
@@ -1548,7 +1604,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1">
+    <row r="35" spans="1:11">
       <c r="A35" s="4">
         <v>4309268</v>
       </c>
@@ -1575,7 +1631,7 @@
       </c>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:11" hidden="1">
+    <row r="36" spans="1:11">
       <c r="A36" s="4">
         <v>4299406</v>
       </c>
@@ -1606,7 +1662,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1">
+    <row r="37" spans="1:11">
       <c r="A37" s="4">
         <v>4338598</v>
       </c>
@@ -1664,7 +1720,7 @@
       </c>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" spans="1:11" hidden="1">
+    <row r="39" spans="1:11">
       <c r="A39" s="4">
         <v>4338616</v>
       </c>
@@ -1691,7 +1747,7 @@
       </c>
       <c r="I39" s="3"/>
     </row>
-    <row r="40" spans="1:11" hidden="1">
+    <row r="40" spans="1:11">
       <c r="A40" s="4">
         <v>4340760</v>
       </c>
@@ -1718,7 +1774,7 @@
       </c>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" spans="1:11" hidden="1">
+    <row r="41" spans="1:11">
       <c r="A41" s="4">
         <v>4321808</v>
       </c>
@@ -1745,7 +1801,7 @@
       </c>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" spans="1:11" hidden="1">
+    <row r="42" spans="1:11">
       <c r="A42" s="4">
         <v>4326615</v>
       </c>
@@ -1776,7 +1832,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1">
+    <row r="43" spans="1:11">
       <c r="A43" s="4">
         <v>4307832</v>
       </c>
@@ -1807,7 +1863,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1">
+    <row r="44" spans="1:11">
       <c r="A44" s="4">
         <v>4307853</v>
       </c>
@@ -1837,10 +1893,10 @@
         <v>25</v>
       </c>
       <c r="K44" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" hidden="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="4">
         <v>4328336</v>
       </c>
@@ -1867,7 +1923,7 @@
       </c>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="1:11" hidden="1">
+    <row r="46" spans="1:11">
       <c r="A46" s="4">
         <v>4338589</v>
       </c>
@@ -1898,7 +1954,7 @@
         <v>18.760000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1">
+    <row r="47" spans="1:11">
       <c r="A47" s="4">
         <v>4338601</v>
       </c>
@@ -1929,7 +1985,7 @@
         <v>18.760000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1">
+    <row r="48" spans="1:11">
       <c r="A48" s="4">
         <v>4307767</v>
       </c>
@@ -1960,7 +2016,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1">
+    <row r="49" spans="1:11">
       <c r="A49" s="4">
         <v>4302968</v>
       </c>
@@ -1987,7 +2043,7 @@
       </c>
       <c r="I49" s="3"/>
     </row>
-    <row r="50" spans="1:11" hidden="1">
+    <row r="50" spans="1:11">
       <c r="A50" s="4">
         <v>4328395</v>
       </c>
@@ -2014,7 +2070,7 @@
       </c>
       <c r="I50" s="3"/>
     </row>
-    <row r="51" spans="1:11" hidden="1">
+    <row r="51" spans="1:11">
       <c r="A51" s="4">
         <v>4303010</v>
       </c>
@@ -2041,7 +2097,7 @@
       </c>
       <c r="I51" s="3"/>
     </row>
-    <row r="52" spans="1:11" hidden="1">
+    <row r="52" spans="1:11">
       <c r="A52" s="4">
         <v>4338603</v>
       </c>
@@ -2068,7 +2124,7 @@
       </c>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="1:11" hidden="1">
+    <row r="53" spans="1:11">
       <c r="A53" s="4">
         <v>4302472</v>
       </c>
@@ -2095,7 +2151,7 @@
       </c>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="1:11" hidden="1">
+    <row r="54" spans="1:11">
       <c r="A54" s="4">
         <v>4303008</v>
       </c>
@@ -2122,7 +2178,7 @@
       </c>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="1:11" hidden="1">
+    <row r="55" spans="1:11">
       <c r="A55" s="4">
         <v>4326501</v>
       </c>
@@ -2152,7 +2208,7 @@
         <v>23.45</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1">
+    <row r="56" spans="1:11">
       <c r="A56" s="4">
         <v>4321744</v>
       </c>
@@ -2179,7 +2235,7 @@
       </c>
       <c r="I56" s="3"/>
     </row>
-    <row r="57" spans="1:11" hidden="1">
+    <row r="57" spans="1:11">
       <c r="A57" s="4">
         <v>4326658</v>
       </c>
@@ -2209,10 +2265,10 @@
         <v>45</v>
       </c>
       <c r="K57" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" hidden="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="4">
         <v>4328348</v>
       </c>
@@ -2239,7 +2295,7 @@
       </c>
       <c r="I58" s="3"/>
     </row>
-    <row r="59" spans="1:11" hidden="1">
+    <row r="59" spans="1:11">
       <c r="A59" s="4">
         <v>4328430</v>
       </c>
@@ -2266,7 +2322,7 @@
       </c>
       <c r="I59" s="3"/>
     </row>
-    <row r="60" spans="1:11" hidden="1">
+    <row r="60" spans="1:11">
       <c r="A60" s="4">
         <v>4339996</v>
       </c>
@@ -2293,7 +2349,7 @@
       </c>
       <c r="I60" s="3"/>
     </row>
-    <row r="61" spans="1:11" hidden="1">
+    <row r="61" spans="1:11">
       <c r="A61" s="4">
         <v>4326531</v>
       </c>
@@ -2324,7 +2380,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1">
+    <row r="62" spans="1:11">
       <c r="A62" s="4">
         <v>4307051</v>
       </c>
@@ -2351,7 +2407,7 @@
       </c>
       <c r="I62" s="3"/>
     </row>
-    <row r="63" spans="1:11" hidden="1">
+    <row r="63" spans="1:11">
       <c r="A63" s="4">
         <v>4309857</v>
       </c>
@@ -2378,7 +2434,7 @@
       </c>
       <c r="I63" s="3"/>
     </row>
-    <row r="64" spans="1:11" hidden="1">
+    <row r="64" spans="1:11">
       <c r="A64" s="4">
         <v>4328433</v>
       </c>
@@ -2436,7 +2492,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1">
+    <row r="66" spans="1:11">
       <c r="A66" s="4">
         <v>4275281</v>
       </c>
@@ -2463,7 +2519,7 @@
       </c>
       <c r="I66" s="3"/>
     </row>
-    <row r="67" spans="1:11" hidden="1">
+    <row r="67" spans="1:11">
       <c r="A67" s="4">
         <v>4296589</v>
       </c>
@@ -2490,7 +2546,7 @@
       </c>
       <c r="I67" s="3"/>
     </row>
-    <row r="68" spans="1:11" hidden="1">
+    <row r="68" spans="1:11">
       <c r="A68" s="4">
         <v>4302874</v>
       </c>
@@ -2517,7 +2573,7 @@
       </c>
       <c r="I68" s="3"/>
     </row>
-    <row r="69" spans="1:11" hidden="1">
+    <row r="69" spans="1:11">
       <c r="A69" s="4">
         <v>4302915</v>
       </c>
@@ -2544,7 +2600,7 @@
       </c>
       <c r="I69" s="3"/>
     </row>
-    <row r="70" spans="1:11" hidden="1">
+    <row r="70" spans="1:11">
       <c r="A70" s="4">
         <v>4302967</v>
       </c>
@@ -2571,7 +2627,7 @@
       </c>
       <c r="I70" s="3"/>
     </row>
-    <row r="71" spans="1:11" hidden="1">
+    <row r="71" spans="1:11">
       <c r="A71" s="4">
         <v>4307811</v>
       </c>
@@ -2602,7 +2658,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1">
+    <row r="72" spans="1:11">
       <c r="A72" s="4">
         <v>4315849</v>
       </c>
@@ -2629,7 +2685,7 @@
       </c>
       <c r="I72" s="3"/>
     </row>
-    <row r="73" spans="1:11" hidden="1">
+    <row r="73" spans="1:11">
       <c r="A73" s="4">
         <v>4326486</v>
       </c>
@@ -2659,7 +2715,7 @@
         <v>23.45</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1">
+    <row r="74" spans="1:11">
       <c r="A74" s="4">
         <v>4326547</v>
       </c>
@@ -2689,10 +2745,10 @@
         <v>23.45</v>
       </c>
       <c r="K74" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" hidden="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="4">
         <v>4338620</v>
       </c>
@@ -2719,7 +2775,7 @@
       </c>
       <c r="I75" s="3"/>
     </row>
-    <row r="76" spans="1:11" hidden="1">
+    <row r="76" spans="1:11">
       <c r="A76" s="3" t="s">
         <v>26</v>
       </c>
@@ -2745,14 +2801,12 @@
         <v>10</v>
       </c>
       <c r="I76" s="3"/>
-      <c r="J76" s="12">
-        <v>0</v>
-      </c>
-      <c r="K76" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" hidden="1">
+      <c r="J76" s="11">
+        <f>G76</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="9" t="s">
         <v>27</v>
       </c>
@@ -2778,14 +2832,12 @@
         <v>10</v>
       </c>
       <c r="I77" s="3"/>
-      <c r="J77" s="12">
-        <v>0</v>
-      </c>
-      <c r="K77" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" hidden="1">
+      <c r="J77" s="11">
+        <f>G77</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="3" t="s">
         <v>28</v>
       </c>
@@ -2816,7 +2868,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1">
+    <row r="79" spans="1:11">
       <c r="A79" s="3" t="s">
         <v>29</v>
       </c>
@@ -2847,7 +2899,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1">
+    <row r="80" spans="1:11">
       <c r="A80" s="3" t="s">
         <v>30</v>
       </c>
@@ -2877,10 +2929,10 @@
         <v>90</v>
       </c>
       <c r="K80" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" hidden="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19">
       <c r="A81" s="3" t="s">
         <v>31</v>
       </c>
@@ -2911,7 +2963,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="82" spans="1:19" hidden="1">
+    <row r="82" spans="1:19">
       <c r="A82" s="3" t="s">
         <v>32</v>
       </c>
@@ -2942,7 +2994,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:19" hidden="1">
+    <row r="83" spans="1:19">
       <c r="A83" s="3" t="s">
         <v>33</v>
       </c>
@@ -2973,7 +3025,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:19" hidden="1">
+    <row r="84" spans="1:19">
       <c r="A84" s="3" t="s">
         <v>34</v>
       </c>
@@ -3004,7 +3056,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="1:19" hidden="1">
+    <row r="85" spans="1:19">
       <c r="A85" s="3" t="s">
         <v>35</v>
       </c>
@@ -3137,68 +3189,198 @@
         <v>23.45</v>
       </c>
       <c r="K90" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19">
+      <c r="A91" s="4">
+        <v>4306320</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7">
+        <v>44343</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G91" s="8">
+        <v>25</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I91" s="3"/>
+      <c r="J91" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19">
+      <c r="A92" s="17">
+        <v>4263557</v>
+      </c>
+      <c r="B92" s="17" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="91" spans="1:19">
-      <c r="A91" s="3"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="3"/>
-    </row>
-    <row r="92" spans="1:19">
-      <c r="A92" s="3"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="3"/>
+      <c r="C92" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E92" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F92" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G92" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H92" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I92" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J92" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L92" s="16" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="93" spans="1:19">
-      <c r="A93" s="3"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="3"/>
+      <c r="A93" s="18">
+        <v>4303033</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" s="18"/>
+      <c r="D93" s="7">
+        <v>44320</v>
+      </c>
+      <c r="E93" s="18"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="8">
+        <v>65</v>
+      </c>
+      <c r="H93" s="18"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="20">
+        <v>65</v>
+      </c>
+      <c r="K93" s="19" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="94" spans="1:19">
-      <c r="A94" s="3"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="3"/>
+      <c r="A94" s="4">
+        <v>4315849</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" s="7">
+        <v>44334</v>
+      </c>
+      <c r="D94" s="7">
+        <v>44337</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G94" s="8">
+        <v>13.4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I94" s="3"/>
+      <c r="J94" s="11">
+        <f>G94</f>
+        <v>13.4</v>
+      </c>
+      <c r="K94" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="95" spans="1:19">
-      <c r="A95" s="3"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="3"/>
+      <c r="A95" s="4">
+        <v>4315849</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" s="7">
+        <v>44334</v>
+      </c>
+      <c r="D95" s="7">
+        <v>44337</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G95" s="8">
+        <v>13.4</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I95" s="3"/>
+      <c r="J95" s="11">
+        <f>G95</f>
+        <v>13.4</v>
+      </c>
+      <c r="K95" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="96" spans="1:19">
-      <c r="A96" s="3"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="3"/>
+      <c r="A96" s="4">
+        <v>4338616</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C96" s="7">
+        <v>44341</v>
+      </c>
+      <c r="D96" s="7">
+        <v>44343</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G96" s="8">
+        <v>65</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I96" s="3"/>
+      <c r="J96" s="11">
+        <f>G96</f>
+        <v>65</v>
+      </c>
+      <c r="K96" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="3"/>
@@ -3221,13 +3403,7 @@
       <c r="H98" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:M85">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Santander"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:M85"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
